--- a/program_directory/interpreterAccounting/上海能源：2015年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/上海能源：2015年年度报告.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
     <sheet name="现金流量表补充资料" sheetId="9" r:id="rId2"/>
     <sheet name="合并所有者权益变动表" sheetId="10" r:id="rId3"/>
     <sheet name="合并利润表" sheetId="11" r:id="rId4"/>
+    <sheet name="合并现金流量表" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="394">
   <si>
     <t>土地使用权</t>
   </si>
@@ -548,10 +549,10 @@
     <t>四(39)、十五(4)</t>
   </si>
   <si>
-    <t>(4,089,277,640.38)</t>
-  </si>
-  <si>
-    <t>(5,248,279,140.20)</t>
+    <t>4,089,277,640.38</t>
+  </si>
+  <si>
+    <t>5,248,279,140.20</t>
   </si>
   <si>
     <t>(3,606,186,482.88)</t>
@@ -566,10 +567,10 @@
     <t>四(40)</t>
   </si>
   <si>
-    <t>(102,619,541.96)</t>
-  </si>
-  <si>
-    <t>(96,361,031.29)</t>
+    <t>102,619,541.96</t>
+  </si>
+  <si>
+    <t>96,361,031.29</t>
   </si>
   <si>
     <t>(100,364,078.42)</t>
@@ -584,10 +585,10 @@
     <t>四(41)</t>
   </si>
   <si>
-    <t>(139,633,189.99)</t>
-  </si>
-  <si>
-    <t>(105,964,278.97)</t>
+    <t>139,633,189.99</t>
+  </si>
+  <si>
+    <t>105,964,278.97</t>
   </si>
   <si>
     <t>(9,032,092.40)</t>
@@ -602,10 +603,10 @@
     <t>四(42)</t>
   </si>
   <si>
-    <t>(501,873,677.20)</t>
-  </si>
-  <si>
-    <t>(716,663,478.95)</t>
+    <t>501,873,677.20</t>
+  </si>
+  <si>
+    <t>716,663,478.95</t>
   </si>
   <si>
     <t>(397,730,028.76)</t>
@@ -620,10 +621,10 @@
     <t>四(43)</t>
   </si>
   <si>
-    <t>(54,129,540.76)</t>
-  </si>
-  <si>
-    <t>(59,626,865.35)</t>
+    <t>54,129,540.76</t>
+  </si>
+  <si>
+    <t>59,626,865.35</t>
   </si>
   <si>
     <t>(51,185,645.54)</t>
@@ -638,12 +639,6 @@
     <t>四(46)</t>
   </si>
   <si>
-    <t>(83,252,047.13)</t>
-  </si>
-  <si>
-    <t>(85,558,463.45)</t>
-  </si>
-  <si>
     <t>(80,797,883.22)</t>
   </si>
   <si>
@@ -716,10 +711,10 @@
     <t>四(48)</t>
   </si>
   <si>
-    <t>(2,289,245.46)</t>
-  </si>
-  <si>
-    <t>(20,759,614.13)</t>
+    <t>2,289,245.46</t>
+  </si>
+  <si>
+    <t>20,759,614.13</t>
   </si>
   <si>
     <t>(1,050,306.65)</t>
@@ -731,10 +726,10 @@
     <t>其中：非流动资产处置损失</t>
   </si>
   <si>
-    <t>(47,806.63)</t>
-  </si>
-  <si>
-    <t>(1,534,855.70)</t>
+    <t>47,806.63</t>
+  </si>
+  <si>
+    <t>1,534,855.70</t>
   </si>
   <si>
     <t>(1,054,747.88)</t>
@@ -761,10 +756,10 @@
     <t>四(49)</t>
   </si>
   <si>
-    <t>(91,181,148.42)</t>
-  </si>
-  <si>
-    <t>(11,023,160.31)</t>
+    <t>91,181,148.42</t>
+  </si>
+  <si>
+    <t>11,023,160.31</t>
   </si>
   <si>
     <t>(21,651,992.68)</t>
@@ -822,6 +817,426 @@
   </si>
   <si>
     <t>稀释每股收益(人民币元)</t>
+  </si>
+  <si>
+    <t>项         目</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>一、经营活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>销售商品、提供劳务收到的现金</t>
+  </si>
+  <si>
+    <t>6,164,159,731.88</t>
+  </si>
+  <si>
+    <t>7,314,469,631.02</t>
+  </si>
+  <si>
+    <t>5,413,493,115.13</t>
+  </si>
+  <si>
+    <t>5,389,599,558.71</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>四(51a)</t>
+  </si>
+  <si>
+    <t>30,706,402.95</t>
+  </si>
+  <si>
+    <t>136,742,293.93</t>
+  </si>
+  <si>
+    <t>24,915,076.63</t>
+  </si>
+  <si>
+    <t>27,794,918.30</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计</t>
+  </si>
+  <si>
+    <t>6,194,866,134.83</t>
+  </si>
+  <si>
+    <t>7,451,211,924.95</t>
+  </si>
+  <si>
+    <t>5,438,408,191.76</t>
+  </si>
+  <si>
+    <t>5,417,394,477.01</t>
+  </si>
+  <si>
+    <t>购买商品、接受劳务支付的现金</t>
+  </si>
+  <si>
+    <t>2,568,772,414.32</t>
+  </si>
+  <si>
+    <t>3,334,589,767.31</t>
+  </si>
+  <si>
+    <t>(1,942,963,466.05)</t>
+  </si>
+  <si>
+    <t>(2,050,067,033.81)</t>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金</t>
+  </si>
+  <si>
+    <t>2,055,092,227.71</t>
+  </si>
+  <si>
+    <t>2,320,164,106.97</t>
+  </si>
+  <si>
+    <t>(2,009,167,147.96)</t>
+  </si>
+  <si>
+    <t>(2,178,657,684.19)</t>
+  </si>
+  <si>
+    <t>支付的各项税费</t>
+  </si>
+  <si>
+    <t>826,233,899.89</t>
+  </si>
+  <si>
+    <t>909,045,422.37</t>
+  </si>
+  <si>
+    <t>(736,495,761.11)</t>
+  </si>
+  <si>
+    <t>(842,382,788.23)</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>四(51b)</t>
+  </si>
+  <si>
+    <t>97,420,009.06</t>
+  </si>
+  <si>
+    <t>99,387,069.82</t>
+  </si>
+  <si>
+    <t>(213,425,132.09)</t>
+  </si>
+  <si>
+    <t>(149,924,263.72)</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计</t>
+  </si>
+  <si>
+    <t>5,547,518,550.98</t>
+  </si>
+  <si>
+    <t>6,663,186,366.47</t>
+  </si>
+  <si>
+    <t>(4,902,051,507.21)</t>
+  </si>
+  <si>
+    <t>(5,221,031,769.95)</t>
+  </si>
+  <si>
+    <t>四(52a)</t>
+  </si>
+  <si>
+    <t>536,356,684.55</t>
+  </si>
+  <si>
+    <t>196,362,707.06</t>
+  </si>
+  <si>
+    <t>二、投资活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>取得投资收益所收到的现金</t>
+  </si>
+  <si>
+    <t>64,361,922.94</t>
+  </si>
+  <si>
+    <t>59,057,179.20</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+  </si>
+  <si>
+    <t>1,347,542.61</t>
+  </si>
+  <si>
+    <t>5,578,030.88</t>
+  </si>
+  <si>
+    <t>671,431.35</t>
+  </si>
+  <si>
+    <t>4,778,593.67</t>
+  </si>
+  <si>
+    <t>处置子公司收到的现金净额</t>
+  </si>
+  <si>
+    <t>四(52b)</t>
+  </si>
+  <si>
+    <t>143,558,430.25</t>
+  </si>
+  <si>
+    <t>144,000,000.00</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>144,985,972.86</t>
+  </si>
+  <si>
+    <t>5,658,030.88</t>
+  </si>
+  <si>
+    <t>209,033,354.29</t>
+  </si>
+  <si>
+    <t>63,835,772.87</t>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+  </si>
+  <si>
+    <t>956,651,061.97</t>
+  </si>
+  <si>
+    <t>1,106,021,343.83</t>
+  </si>
+  <si>
+    <t>(749,216,640.52)</t>
+  </si>
+  <si>
+    <t>(1,201,076,809.32)</t>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+  </si>
+  <si>
+    <t>38,000,000.00</t>
+  </si>
+  <si>
+    <t>(212,960,000.00)</t>
+  </si>
+  <si>
+    <t>(200,000,000.00)</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额</t>
+  </si>
+  <si>
+    <t>89,268,629.12</t>
+  </si>
+  <si>
+    <t>(120,000,000.00)</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>994,651,061.97</t>
+  </si>
+  <si>
+    <t>1,195,289,972.95</t>
+  </si>
+  <si>
+    <t>(962,176,640.52)</t>
+  </si>
+  <si>
+    <t>(1,521,076,809.32)</t>
+  </si>
+  <si>
+    <t>投资活动使用的现金流量净额</t>
+  </si>
+  <si>
+    <t>(849,665,089.11)</t>
+  </si>
+  <si>
+    <t>(1,189,631,942.07)</t>
+  </si>
+  <si>
+    <t>(753,143,286.23)</t>
+  </si>
+  <si>
+    <t>(1,457,241,036.45)</t>
+  </si>
+  <si>
+    <t>三、筹资活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金</t>
+  </si>
+  <si>
+    <t>12,200,000.00</t>
+  </si>
+  <si>
+    <t>其中：子公司吸收少数股东投资收到的现金</t>
+  </si>
+  <si>
+    <t>12,098,000.00</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金</t>
+  </si>
+  <si>
+    <t>1,487,700,000.00</t>
+  </si>
+  <si>
+    <t>1,952,300,000.00</t>
+  </si>
+  <si>
+    <t>1,350,000,000.00</t>
+  </si>
+  <si>
+    <t>发行债券收到的现金</t>
+  </si>
+  <si>
+    <t>1,000,000,000.00</t>
+  </si>
+  <si>
+    <t>1,485,000,000.00</t>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t>10,000,000.00</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>2,516,710,000.00</t>
+  </si>
+  <si>
+    <t>3,449,500,000.00</t>
+  </si>
+  <si>
+    <t>2,351,010,000.00</t>
+  </si>
+  <si>
+    <t>2,835,000,000.00</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金</t>
+  </si>
+  <si>
+    <t>1,688,900,000.00</t>
+  </si>
+  <si>
+    <t>3,075,050,000.00</t>
+  </si>
+  <si>
+    <t>(1,500,000,000.00)</t>
+  </si>
+  <si>
+    <t>(1,645,000,000.00)</t>
+  </si>
+  <si>
+    <t>分配股利、利润或偿付利息支付的现金</t>
+  </si>
+  <si>
+    <t>121,718,123.82</t>
+  </si>
+  <si>
+    <t>118,623,109.99</t>
+  </si>
+  <si>
+    <t>(118,487,415.81)</t>
+  </si>
+  <si>
+    <t>(55,583,704.67)</t>
+  </si>
+  <si>
+    <t>偿还债券支付的现金</t>
+  </si>
+  <si>
+    <t>500,000,000.00</t>
+  </si>
+  <si>
+    <t>(500,000,000.00)</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>2,310,618,123.82</t>
+  </si>
+  <si>
+    <t>3,193,673,109.99</t>
+  </si>
+  <si>
+    <t>(2,118,487,415.81)</t>
+  </si>
+  <si>
+    <t>(1,700,583,704.67)</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>206,091,876.18</t>
+  </si>
+  <si>
+    <t>255,826,890.01</t>
+  </si>
+  <si>
+    <t>232,522,584.19</t>
+  </si>
+  <si>
+    <t>1,134,416,295.33</t>
+  </si>
+  <si>
+    <t>四、汇率变动对现金及现金等价物的影响</t>
+  </si>
+  <si>
+    <t>五、现金净增加/(减少)额</t>
+  </si>
+  <si>
+    <t>15,735,982.51</t>
+  </si>
+  <si>
+    <t>(126,462,034.06)</t>
+  </si>
+  <si>
+    <t>加：年初现金余额</t>
+  </si>
+  <si>
+    <t>291,740,437.73</t>
+  </si>
+  <si>
+    <t>82,061,213.11</t>
+  </si>
+  <si>
+    <t>208,523,247.17</t>
+  </si>
+  <si>
+    <t>六、年末现金余额</t>
+  </si>
+  <si>
+    <t>97,797,195.62</t>
   </si>
 </sst>
 </file>
@@ -829,12 +1244,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,21 +1284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,11 +1298,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,7 +1314,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,82 +1424,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,7 +1462,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,163 +1624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,15 +1641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1245,6 +1658,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,201 +1741,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1827,345 +2250,345 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="true"/>
-    <col min="2" max="3" width="14" style="1" customWidth="true"/>
-    <col min="4" max="4" width="11.7777777777778" style="1" customWidth="true"/>
-    <col min="5" max="6" width="14" style="1" customWidth="true"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="true"/>
+    <col min="2" max="3" width="14" style="2" customWidth="true"/>
+    <col min="4" max="4" width="11.7777777777778" style="2" customWidth="true"/>
+    <col min="5" max="6" width="14" style="2" customWidth="true"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2178,248 +2601,248 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="48" style="1" customWidth="true"/>
-    <col min="2" max="3" width="17.8888888888889" style="1" customWidth="true"/>
-    <col min="4" max="5" width="14" style="1" customWidth="true"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="48" style="2" customWidth="true"/>
+    <col min="2" max="3" width="17.8888888888889" style="2" customWidth="true"/>
+    <col min="4" max="5" width="14" style="2" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2440,275 +2863,275 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="true"/>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="18.6666666666667" style="1" customWidth="true"/>
-    <col min="4" max="4" width="22.3333333333333" style="1" customWidth="true"/>
-    <col min="5" max="5" width="14" style="1" customWidth="true"/>
-    <col min="6" max="6" width="9.55555555555556" style="1" customWidth="true"/>
-    <col min="7" max="8" width="14" style="1" customWidth="true"/>
-    <col min="9" max="9" width="15.5555555555556" style="1" customWidth="true"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="2" customWidth="true"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="3" max="3" width="18.6666666666667" style="2" customWidth="true"/>
+    <col min="4" max="4" width="22.3333333333333" style="2" customWidth="true"/>
+    <col min="5" max="5" width="14" style="2" customWidth="true"/>
+    <col min="6" max="6" width="9.55555555555556" style="2" customWidth="true"/>
+    <col min="7" max="8" width="14" style="2" customWidth="true"/>
+    <col min="9" max="9" width="15.5555555555556" style="2" customWidth="true"/>
+    <col min="10" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2724,20 +3147,525 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.8888888888889" style="1" customWidth="true"/>
-    <col min="2" max="2" width="13.4444444444444" style="1" customWidth="true"/>
-    <col min="3" max="6" width="15.5555555555556" style="1" customWidth="true"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="27.8888888888889" style="2" customWidth="true"/>
+    <col min="2" max="2" width="13.4444444444444" style="2" customWidth="true"/>
+    <col min="3" max="6" width="15.5555555555556" style="2" customWidth="true"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="46.2222222222222" customWidth="true"/>
+    <col min="2" max="2" width="7" customWidth="true"/>
+    <col min="3" max="6" width="16.7777777777778" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>109</v>
@@ -2755,7 +3683,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>154</v>
       </c>
@@ -2771,451 +3705,640 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>297</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>311</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>322</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>252</v>
+        <v>345</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.07</v>
+        <v>347</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.07</v>
+        <v>351</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
